--- a/Results/xlsx/RS230010BOS01.xlsx
+++ b/Results/xlsx/RS230010BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26923</t>
+          <t xml:space="preserve">      34036</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -694,19 +694,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-02</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27076</t>
+          <t xml:space="preserve">      34037</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -736,24 +736,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-03</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27077</t>
+          <t xml:space="preserve">      34186</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -783,24 +783,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.03                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-03</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">      26997</t>
+          <t xml:space="preserve">      34187</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -830,24 +830,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-02</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27246</t>
+          <t xml:space="preserve">      34119</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -882,19 +882,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27247</t>
+          <t xml:space="preserve">      34120</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27168</t>
+          <t xml:space="preserve">      26923</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -976,19 +976,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-03</t>
+          <t xml:space="preserve">      2021-02-02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27169</t>
+          <t xml:space="preserve">      27076</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.03                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1035,7 +1035,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27338</t>
+          <t xml:space="preserve">      27077</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1070,19 +1070,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.03                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-02-03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27417</t>
+          <t xml:space="preserve">      26997</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.02                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27418</t>
+          <t xml:space="preserve">      27246</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1159,24 +1159,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30231</t>
+          <t xml:space="preserve">      27247</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1206,24 +1206,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30232</t>
+          <t xml:space="preserve">      27168</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-03</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30363</t>
+          <t xml:space="preserve">      27169</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1300,24 +1300,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.03                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-03</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30364</t>
+          <t xml:space="preserve">      27338</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1352,19 +1352,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30443</t>
+          <t xml:space="preserve">      27417</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28298</t>
+          <t xml:space="preserve">      27418</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28299</t>
+          <t xml:space="preserve">      34290</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1488,24 +1488,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31579</t>
+          <t xml:space="preserve">      34291</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1535,24 +1535,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31842</t>
+          <t xml:space="preserve">      34474</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1582,24 +1582,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31740</t>
+          <t xml:space="preserve">      34475</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1629,24 +1629,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31741</t>
+          <t xml:space="preserve">      34370</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1676,24 +1676,24 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32071</t>
+          <t xml:space="preserve">      34371</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1723,24 +1723,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32072</t>
+          <t xml:space="preserve">      34675</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1770,24 +1770,24 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32156</t>
+          <t xml:space="preserve">      34754</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1817,24 +1817,24 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32222</t>
+          <t xml:space="preserve">      34755</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1864,24 +1864,24 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32223</t>
+          <t xml:space="preserve">      34554</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1911,24 +1911,24 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31921</t>
+          <t xml:space="preserve">      30231</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1958,24 +1958,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32005</t>
+          <t xml:space="preserve">      30232</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2010,19 +2010,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25870</t>
+          <t xml:space="preserve">      30363</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2052,24 +2052,24 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25778</t>
+          <t xml:space="preserve">      30364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2099,24 +2099,24 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.01                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      25779</t>
+          <t xml:space="preserve">      30443</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2146,24 +2146,24 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29365</t>
+          <t xml:space="preserve">      28298</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,19 +2198,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.09                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-09</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29366</t>
+          <t xml:space="preserve">      28299</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-09</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29449</t>
+          <t xml:space="preserve">      31579</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2287,24 +2287,24 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-09</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29515</t>
+          <t xml:space="preserve">      31842</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2334,24 +2334,24 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.10                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-10</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29516</t>
+          <t xml:space="preserve">      31740</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2381,24 +2381,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-10</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29619</t>
+          <t xml:space="preserve">      31741</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-10</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29698</t>
+          <t xml:space="preserve">      32071</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.11                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-11</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29699</t>
+          <t xml:space="preserve">      32072</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2527,19 +2527,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-11</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29879</t>
+          <t xml:space="preserve">      32156</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2569,24 +2569,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.12                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29880</t>
+          <t xml:space="preserve">      32222</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2616,24 +2616,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29800</t>
+          <t xml:space="preserve">      32223</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2668,19 +2668,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-11</t>
+          <t xml:space="preserve">      2021-02-20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      29971</t>
+          <t xml:space="preserve">      31921</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2715,19 +2715,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30050</t>
+          <t xml:space="preserve">      32005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2757,24 +2757,24 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30051</t>
+          <t xml:space="preserve">      25870</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2809,19 +2809,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30152</t>
+          <t xml:space="preserve">      25778</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2851,24 +2851,24 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32314</t>
+          <t xml:space="preserve">      25779</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2898,24 +2898,24 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32315</t>
+          <t xml:space="preserve">      29365</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2945,24 +2945,24 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.09                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-09</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32394</t>
+          <t xml:space="preserve">      29366</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2992,24 +2992,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-09</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32395</t>
+          <t xml:space="preserve">      29449</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3044,19 +3044,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.09                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-09</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32580</t>
+          <t xml:space="preserve">      29515</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3091,19 +3091,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.10                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32581</t>
+          <t xml:space="preserve">      29516</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32513</t>
+          <t xml:space="preserve">      29619</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3180,24 +3180,24 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.10                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32514</t>
+          <t xml:space="preserve">      29698</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3227,24 +3227,24 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.11                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-11</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32669</t>
+          <t xml:space="preserve">      29699</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3279,19 +3279,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-11</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27500</t>
+          <t xml:space="preserve">      29879</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3321,24 +3321,24 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.12                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27830</t>
+          <t xml:space="preserve">      29880</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3368,24 +3368,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27831</t>
+          <t xml:space="preserve">      29800</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3420,19 +3420,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.11                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-11</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27579</t>
+          <t xml:space="preserve">      29971</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3462,24 +3462,24 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.06                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27580</t>
+          <t xml:space="preserve">      30050</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3509,24 +3509,24 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27712</t>
+          <t xml:space="preserve">      30051</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3561,19 +3561,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28027</t>
+          <t xml:space="preserve">      30152</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3603,24 +3603,24 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28028</t>
+          <t xml:space="preserve">      32314</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3650,24 +3650,24 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-20</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28146</t>
+          <t xml:space="preserve">      32315</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3697,69 +3697,868 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-20</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t xml:space="preserve">      32394</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32395</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32580</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32581</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32513</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32514</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32669</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27500</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27830</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27831</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27579</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.06                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27580</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      27712</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28027</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28028</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      28146</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t xml:space="preserve">      28147</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73"/>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      34820</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
